--- a/docs/requirements/Master Data Tables - Test Data/master-module_detail.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-module_detail.xlsx
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10012</v>
+        <v>10006</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>10013</v>
+        <v>10001</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>10014</v>
+        <v>10002</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>10016</v>
+        <v>10004</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>10017</v>
+        <v>10005</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>10018</v>
+        <v>10006</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
